--- a/eval_result_only_classify.xlsx
+++ b/eval_result_only_classify.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/npn/Workspace/ChuyenDeNghienCuu/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B08484-96FB-FC47-AA27-9C71034DC58B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7000A46-2A1A-6940-A30F-867FB1CA7B78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="33600" windowHeight="20520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4200" yWindow="500" windowWidth="29400" windowHeight="19000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2300,24 +2300,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2618,7 +2601,7 @@
   <dimension ref="A1:F89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="E47" sqref="E47:F88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -3485,10 +3468,10 @@
       <c r="D47" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="E47" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="F47" s="4" t="s">
         <v>195</v>
       </c>
     </row>
@@ -3499,9 +3482,10 @@
       <c r="D48" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="E48" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="F48" s="4"/>
     </row>
     <row r="49" spans="1:6" ht="66" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
@@ -3510,9 +3494,10 @@
       <c r="D49" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E49" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="F49" s="4"/>
     </row>
     <row r="50" spans="1:6" ht="66" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
@@ -3521,9 +3506,10 @@
       <c r="D50" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="E50" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="F50" s="4"/>
     </row>
     <row r="51" spans="1:6" ht="66" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
@@ -3532,9 +3518,10 @@
       <c r="D51" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="E51" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="F51" s="4"/>
     </row>
     <row r="52" spans="1:6" ht="66" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
@@ -3543,9 +3530,10 @@
       <c r="D52" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="E52" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="F52" s="4"/>
     </row>
     <row r="53" spans="1:6" ht="66" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
@@ -3554,9 +3542,10 @@
       <c r="D53" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="E53" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="F53" s="4"/>
     </row>
     <row r="54" spans="1:6" ht="66" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
@@ -3565,9 +3554,10 @@
       <c r="D54" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="E54" s="4" t="s">
         <v>167</v>
       </c>
+      <c r="F54" s="4"/>
     </row>
     <row r="55" spans="1:6" ht="66" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
@@ -3576,9 +3566,10 @@
       <c r="D55" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="E55" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="F55" s="4"/>
     </row>
     <row r="56" spans="1:6" ht="66" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
@@ -3587,9 +3578,10 @@
       <c r="D56" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="E56" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="F56" s="4"/>
     </row>
     <row r="57" spans="1:6" ht="66" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
@@ -3598,9 +3590,10 @@
       <c r="D57" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="E57" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="F57" s="4"/>
     </row>
     <row r="58" spans="1:6" ht="66" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
@@ -3609,9 +3602,10 @@
       <c r="D58" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="E58" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="F58" s="4"/>
     </row>
     <row r="59" spans="1:6" ht="66" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
@@ -3620,9 +3614,10 @@
       <c r="D59" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="E59" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="F59" s="4"/>
     </row>
     <row r="60" spans="1:6" ht="66" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
@@ -3631,9 +3626,10 @@
       <c r="D60" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="E60" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="F60" s="4"/>
     </row>
     <row r="61" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
@@ -3642,7 +3638,7 @@
       <c r="D61" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="E61" s="3" t="s">
+      <c r="E61" s="4" t="s">
         <v>210</v>
       </c>
       <c r="F61" s="4"/>
@@ -3654,9 +3650,10 @@
       <c r="D62" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="E62" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="F62" s="4"/>
     </row>
     <row r="63" spans="1:6" ht="66" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
@@ -3665,9 +3662,10 @@
       <c r="D63" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="E63" s="4" t="s">
         <v>167</v>
       </c>
+      <c r="F63" s="4"/>
     </row>
     <row r="64" spans="1:6" ht="66" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
@@ -3676,9 +3674,10 @@
       <c r="D64" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="E64" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="F64" s="4"/>
     </row>
     <row r="65" spans="1:6" ht="66" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
@@ -3687,9 +3686,10 @@
       <c r="D65" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="E65" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="F65" s="4"/>
     </row>
     <row r="66" spans="1:6" ht="66" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
@@ -3698,9 +3698,10 @@
       <c r="D66" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="E66" s="4" t="s">
         <v>216</v>
       </c>
+      <c r="F66" s="4"/>
     </row>
     <row r="67" spans="1:6" ht="66" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
@@ -3709,9 +3710,10 @@
       <c r="D67" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="E67" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="F67" s="4"/>
     </row>
     <row r="68" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
@@ -3720,7 +3722,7 @@
       <c r="D68" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="E68" s="3" t="s">
+      <c r="E68" s="4" t="s">
         <v>219</v>
       </c>
       <c r="F68" s="4"/>
@@ -3732,7 +3734,7 @@
       <c r="D69" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="E69" s="3" t="s">
+      <c r="E69" s="4" t="s">
         <v>221</v>
       </c>
       <c r="F69" s="4"/>
@@ -3744,9 +3746,10 @@
       <c r="D70" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="E70" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="F70" s="4"/>
     </row>
     <row r="71" spans="1:6" ht="66" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
@@ -3755,9 +3758,10 @@
       <c r="D71" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="E71" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="F71" s="4"/>
     </row>
     <row r="72" spans="1:6" ht="44" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
@@ -3766,9 +3770,10 @@
       <c r="D72" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="E72" s="4" t="s">
         <v>225</v>
       </c>
+      <c r="F72" s="4"/>
     </row>
     <row r="73" spans="1:6" ht="66" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
@@ -3777,9 +3782,10 @@
       <c r="D73" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="E73" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="F73" s="4"/>
     </row>
     <row r="74" spans="1:6" ht="286" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
@@ -3788,9 +3794,10 @@
       <c r="D74" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="E74" s="3" t="s">
+      <c r="E74" s="4" t="s">
         <v>228</v>
       </c>
+      <c r="F74" s="4"/>
     </row>
     <row r="75" spans="1:6" ht="66" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
@@ -3799,9 +3806,10 @@
       <c r="D75" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="E75" s="1" t="s">
+      <c r="E75" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="F75" s="4"/>
     </row>
     <row r="76" spans="1:6" ht="66" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
@@ -3810,9 +3818,10 @@
       <c r="D76" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="E76" s="1" t="s">
+      <c r="E76" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="F76" s="4"/>
     </row>
     <row r="77" spans="1:6" ht="66" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
@@ -3821,9 +3830,10 @@
       <c r="D77" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="E77" s="1" t="s">
+      <c r="E77" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="F77" s="4"/>
     </row>
     <row r="78" spans="1:6" ht="88" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
@@ -3832,9 +3842,10 @@
       <c r="D78" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="E78" s="1" t="s">
+      <c r="E78" s="4" t="s">
         <v>233</v>
       </c>
+      <c r="F78" s="4"/>
     </row>
     <row r="79" spans="1:6" ht="374" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
@@ -3843,9 +3854,10 @@
       <c r="D79" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="E79" s="3" t="s">
+      <c r="E79" s="4" t="s">
         <v>235</v>
       </c>
+      <c r="F79" s="4"/>
     </row>
     <row r="80" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
@@ -3854,99 +3866,108 @@
       <c r="D80" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="E80" s="3" t="s">
+      <c r="E80" s="4" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" ht="66" x14ac:dyDescent="0.25">
+      <c r="F80" s="4"/>
+    </row>
+    <row r="81" spans="1:6" ht="66" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>79</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="E81" s="1" t="s">
+      <c r="E81" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" ht="66" x14ac:dyDescent="0.25">
+      <c r="F81" s="4"/>
+    </row>
+    <row r="82" spans="1:6" ht="66" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>80</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="E82" s="1" t="s">
+      <c r="E82" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" ht="66" x14ac:dyDescent="0.25">
+      <c r="F82" s="4"/>
+    </row>
+    <row r="83" spans="1:6" ht="66" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>81</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="E83" s="1" t="s">
+      <c r="E83" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" ht="66" x14ac:dyDescent="0.25">
+      <c r="F83" s="4"/>
+    </row>
+    <row r="84" spans="1:6" ht="66" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>82</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="E84" s="1" t="s">
+      <c r="E84" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" ht="66" x14ac:dyDescent="0.25">
+      <c r="F84" s="4"/>
+    </row>
+    <row r="85" spans="1:6" ht="66" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>83</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="E85" s="1" t="s">
+      <c r="E85" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="F85" s="4"/>
+    </row>
+    <row r="86" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>84</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="E86" s="3" t="s">
+      <c r="E86" s="4" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" ht="110" x14ac:dyDescent="0.25">
+      <c r="F86" s="4"/>
+    </row>
+    <row r="87" spans="1:6" ht="110" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>85</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="E87" s="3" t="s">
+      <c r="E87" s="4" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="F87" s="4"/>
+    </row>
+    <row r="88" spans="1:6" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>86</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E88" s="3" t="s">
+      <c r="E88" s="4" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" ht="66" x14ac:dyDescent="0.25">
+      <c r="F88" s="4"/>
+    </row>
+    <row r="89" spans="1:6" ht="66" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>87</v>
       </c>
